--- a/data/pop_Brasil.xlsx
+++ b/data/pop_Brasil.xlsx
@@ -207,11 +207,11 @@
   </sheetPr>
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB3" activeCellId="0" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.98"/>
@@ -416,7 +416,7 @@
         <v>506</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>204449</v>
+        <v>204449000</v>
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>

--- a/data/pop_Brasil.xlsx
+++ b/data/pop_Brasil.xlsx
@@ -211,7 +211,7 @@
       <selection pane="topLeft" activeCell="AB3" activeCellId="0" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.98"/>
@@ -416,7 +416,7 @@
         <v>506</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>204449000</v>
+        <v>204449</v>
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
